--- a/P4_CreateReportDB/top_employee_country.xlsx
+++ b/P4_CreateReportDB/top_employee_country.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\become-business-analyst\P4_CreateReportDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5F0B507-8748-4ED6-A004-BEA299E7176A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD8F20E-B2BF-4919-B793-E8D752741714}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="top_employee_country" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -627,9 +627,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -985,11 +988,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1000,24 +1003,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
